--- a/experiment/nonconvex/MitsosBarton2006Ex312/compare/Fuertemente-Estacionario/MitsosBarton2006Ex312_Fuertemente-Estacionario.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex312/compare/Fuertemente-Estacionario/MitsosBarton2006Ex312_Fuertemente-Estacionario.xlsx
@@ -473,13 +473,13 @@
         <v>2.260999991878215</v>
       </c>
       <c r="E2">
-        <v>0.0077241</v>
+        <v>0.0116763</v>
       </c>
       <c r="F2">
-        <v>0.0209533</v>
+        <v>0.0423751</v>
       </c>
       <c r="G2">
-        <v>0.008970884684684684</v>
+        <v>0.023039427906976745</v>
       </c>
       <c r="H2">
         <v>2949</v>
